--- a/patient_data/patient_97.xlsx
+++ b/patient_data/patient_97.xlsx
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -672,28 +672,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -826,28 +826,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1069,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1146,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,22 +1330,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
